--- a/base_horas_extras_alpargatas.xlsx
+++ b/base_horas_extras_alpargatas.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sac.luft\Documents\STREAMLIT_APP_ALPARGATAS_EMBARQUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C5FE81-FC2B-4EE1-A721-68C5CB214957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24963A6D-D3A3-4E6F-8495-9B7661803077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseApp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -453,9 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -468,8 +453,8 @@
     <col min="7" max="7" width="58.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="26.5703125" style="3"/>
+    <col min="10" max="12" width="26.5703125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="26.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
